--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H2">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I2">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J2">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N2">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O2">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P2">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q2">
-        <v>128.8844128566694</v>
+        <v>130.837080430895</v>
       </c>
       <c r="R2">
-        <v>128.8844128566694</v>
+        <v>523.3483217235801</v>
       </c>
       <c r="S2">
-        <v>0.03405892288094309</v>
+        <v>0.03289023495956921</v>
       </c>
       <c r="T2">
-        <v>0.03405892288094309</v>
+        <v>0.01985679787807758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H3">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I3">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J3">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N3">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P3">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q3">
-        <v>3.053092532287756</v>
+        <v>4.807748289636335</v>
       </c>
       <c r="R3">
-        <v>3.053092532287756</v>
+        <v>28.846489737818</v>
       </c>
       <c r="S3">
-        <v>0.0008068085255678846</v>
+        <v>0.001208586819209295</v>
       </c>
       <c r="T3">
-        <v>0.0008068085255678846</v>
+        <v>0.00109448887564873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H4">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I4">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J4">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N4">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O4">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P4">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q4">
-        <v>1.257188737599199</v>
+        <v>1.598032735460667</v>
       </c>
       <c r="R4">
-        <v>1.257188737599199</v>
+        <v>9.588196412764002</v>
       </c>
       <c r="S4">
-        <v>0.0003322239928912054</v>
+        <v>0.0004017184728464283</v>
       </c>
       <c r="T4">
-        <v>0.0003322239928912054</v>
+        <v>0.000363793806687935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H5">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I5">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J5">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N5">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O5">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P5">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q5">
-        <v>1.576995965275988</v>
+        <v>1.822337736359</v>
       </c>
       <c r="R5">
-        <v>1.576995965275988</v>
+        <v>10.934026418154</v>
       </c>
       <c r="S5">
-        <v>0.0004167360720696637</v>
+        <v>0.0004581049663225582</v>
       </c>
       <c r="T5">
-        <v>0.0004167360720696637</v>
+        <v>0.0004148570723677973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H6">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I6">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J6">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N6">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O6">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P6">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q6">
-        <v>83.12656059169502</v>
+        <v>86.49869729391001</v>
       </c>
       <c r="R6">
-        <v>83.12656059169502</v>
+        <v>518.99218376346</v>
       </c>
       <c r="S6">
-        <v>0.02196697842507242</v>
+        <v>0.02174431337296612</v>
       </c>
       <c r="T6">
-        <v>0.02196697842507242</v>
+        <v>0.01969151799198136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H7">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I7">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J7">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N7">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O7">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P7">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q7">
-        <v>45.35737887643311</v>
+        <v>46.849375864316</v>
       </c>
       <c r="R7">
-        <v>45.35737887643311</v>
+        <v>187.397503457264</v>
       </c>
       <c r="S7">
-        <v>0.01198611558212341</v>
+        <v>0.01177714280089262</v>
       </c>
       <c r="T7">
-        <v>0.01198611558212341</v>
+        <v>0.007110205946112958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H8">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J8">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N8">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O8">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P8">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q8">
-        <v>477.6364031531292</v>
+        <v>508.0612102179367</v>
       </c>
       <c r="R8">
-        <v>477.6364031531292</v>
+        <v>3048.36726130762</v>
       </c>
       <c r="S8">
-        <v>0.1262199288459702</v>
+        <v>0.1277180178805425</v>
       </c>
       <c r="T8">
-        <v>0.1262199288459702</v>
+        <v>0.1156606605072964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H9">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J9">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N9">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P9">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q9">
-        <v>11.31454225762213</v>
+        <v>18.66925191552245</v>
       </c>
       <c r="R9">
-        <v>11.31454225762213</v>
+        <v>168.023267239702</v>
       </c>
       <c r="S9">
-        <v>0.002989974610925827</v>
+        <v>0.004693135004225656</v>
       </c>
       <c r="T9">
-        <v>0.002989974610925827</v>
+        <v>0.006375111790566103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H10">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J10">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N10">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O10">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P10">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q10">
-        <v>4.659051419812023</v>
+        <v>6.205415489799557</v>
       </c>
       <c r="R10">
-        <v>4.659051419812023</v>
+        <v>55.84873940819601</v>
       </c>
       <c r="S10">
-        <v>0.00123119832327742</v>
+        <v>0.001559936776402291</v>
       </c>
       <c r="T10">
-        <v>0.00123119832327742</v>
+        <v>0.002119003891178444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H11">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J11">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N11">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O11">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P11">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q11">
-        <v>5.844234100512042</v>
+        <v>7.076427513600666</v>
       </c>
       <c r="R11">
-        <v>5.844234100512042</v>
+        <v>63.687847622406</v>
       </c>
       <c r="S11">
-        <v>0.001544394035831752</v>
+        <v>0.001778894506283458</v>
       </c>
       <c r="T11">
-        <v>0.001544394035831752</v>
+        <v>0.002416434074657968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H12">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J12">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N12">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O12">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P12">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q12">
-        <v>308.0610799046929</v>
+        <v>335.88821062566</v>
       </c>
       <c r="R12">
-        <v>308.0610799046929</v>
+        <v>3022.993895630941</v>
       </c>
       <c r="S12">
-        <v>0.0814080487355926</v>
+        <v>0.08443663012995939</v>
       </c>
       <c r="T12">
-        <v>0.0814080487355926</v>
+        <v>0.1146979483463611</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H13">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J13">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N13">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O13">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P13">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q13">
-        <v>168.0911975530031</v>
+        <v>181.9235840572827</v>
       </c>
       <c r="R13">
-        <v>168.0911975530031</v>
+        <v>1091.541504343696</v>
       </c>
       <c r="S13">
-        <v>0.04441968588389196</v>
+        <v>0.04573252020470842</v>
       </c>
       <c r="T13">
-        <v>0.04441968588389196</v>
+        <v>0.04141509225806493</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H14">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I14">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J14">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N14">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O14">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P14">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q14">
-        <v>486.348712284702</v>
+        <v>489.3789211192517</v>
       </c>
       <c r="R14">
-        <v>486.348712284702</v>
+        <v>2936.27352671551</v>
       </c>
       <c r="S14">
-        <v>0.1285222387859408</v>
+        <v>0.123021605548391</v>
       </c>
       <c r="T14">
-        <v>0.1285222387859408</v>
+        <v>0.1114076180520078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H15">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I15">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J15">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N15">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P15">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q15">
-        <v>11.52092474685431</v>
+        <v>17.98275124488012</v>
       </c>
       <c r="R15">
-        <v>11.52092474685431</v>
+        <v>161.844761203921</v>
       </c>
       <c r="S15">
-        <v>0.003044513132139816</v>
+        <v>0.004520560316048828</v>
       </c>
       <c r="T15">
-        <v>0.003044513132139816</v>
+        <v>0.006140687907946326</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H16">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I16">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J16">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N16">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O16">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P16">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q16">
-        <v>4.744034674776118</v>
+        <v>5.977231633550891</v>
       </c>
       <c r="R16">
-        <v>4.744034674776118</v>
+        <v>53.79508470195801</v>
       </c>
       <c r="S16">
-        <v>0.001253655950719246</v>
+        <v>0.00150257520412261</v>
       </c>
       <c r="T16">
-        <v>0.001253655950719246</v>
+        <v>0.002041084454504165</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H17">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I17">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J17">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N17">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O17">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P17">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q17">
-        <v>5.95083563629284</v>
+        <v>6.816215039323667</v>
       </c>
       <c r="R17">
-        <v>5.95083563629284</v>
+        <v>61.345935353913</v>
       </c>
       <c r="S17">
-        <v>0.001572564498075204</v>
+        <v>0.001713481479714879</v>
       </c>
       <c r="T17">
-        <v>0.001572564498075204</v>
+        <v>0.00232757761590311</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H18">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I18">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J18">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N18">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O18">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P18">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q18">
-        <v>313.680256629536</v>
+        <v>323.5370203959301</v>
       </c>
       <c r="R18">
-        <v>313.680256629536</v>
+        <v>2911.833183563371</v>
       </c>
       <c r="S18">
-        <v>0.08289296923516191</v>
+        <v>0.08133174925560574</v>
       </c>
       <c r="T18">
-        <v>0.08289296923516191</v>
+        <v>0.1104803064816858</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H19">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I19">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J19">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N19">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O19">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P19">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q19">
-        <v>171.1572588199215</v>
+        <v>175.2339393395347</v>
       </c>
       <c r="R19">
-        <v>171.1572588199215</v>
+        <v>1051.403636037208</v>
       </c>
       <c r="S19">
-        <v>0.0452299215200224</v>
+        <v>0.04405085636875188</v>
       </c>
       <c r="T19">
-        <v>0.0452299215200224</v>
+        <v>0.03989218771220916</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H20">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I20">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J20">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N20">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O20">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P20">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q20">
-        <v>427.1367821881468</v>
+        <v>440.3117174300116</v>
       </c>
       <c r="R20">
-        <v>427.1367821881468</v>
+        <v>2641.87030458007</v>
       </c>
       <c r="S20">
-        <v>0.1128749272446056</v>
+        <v>0.1106869382443423</v>
       </c>
       <c r="T20">
-        <v>0.1128749272446056</v>
+        <v>0.1002374183323537</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H21">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I21">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J21">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N21">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P21">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q21">
-        <v>10.11827645453381</v>
+        <v>16.17972442834411</v>
       </c>
       <c r="R21">
-        <v>10.11827645453381</v>
+        <v>145.617519855097</v>
       </c>
       <c r="S21">
-        <v>0.002673850078645847</v>
+        <v>0.004067309789218286</v>
       </c>
       <c r="T21">
-        <v>0.002673850078645847</v>
+        <v>0.00552499652573039</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H22">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I22">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J22">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N22">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O22">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P22">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q22">
-        <v>4.166458457458942</v>
+        <v>5.37792906982289</v>
       </c>
       <c r="R22">
-        <v>4.166458457458942</v>
+        <v>48.40136162840601</v>
       </c>
       <c r="S22">
-        <v>0.001101025982459631</v>
+        <v>0.001351920649099143</v>
       </c>
       <c r="T22">
-        <v>0.001101025982459631</v>
+        <v>0.001836436680858653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H23">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I23">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J23">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N23">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O23">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P23">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q23">
-        <v>5.226333946842505</v>
+        <v>6.132792445315665</v>
       </c>
       <c r="R23">
-        <v>5.226333946842505</v>
+        <v>55.19513200784099</v>
       </c>
       <c r="S23">
-        <v>0.001381108086697177</v>
+        <v>0.001541680568080553</v>
       </c>
       <c r="T23">
-        <v>0.001381108086697177</v>
+        <v>0.00209420482428219</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H24">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I24">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J24">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N24">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O24">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P24">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q24">
-        <v>275.490346881518</v>
+        <v>291.09782819601</v>
       </c>
       <c r="R24">
-        <v>275.490346881518</v>
+        <v>2619.88045376409</v>
       </c>
       <c r="S24">
-        <v>0.07280092503750998</v>
+        <v>0.07317708354585289</v>
       </c>
       <c r="T24">
-        <v>0.07280092503750998</v>
+        <v>0.09940308294825623</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H25">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I25">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J25">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N25">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O25">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P25">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q25">
-        <v>150.3192234992264</v>
+        <v>157.6642422729427</v>
       </c>
       <c r="R25">
-        <v>150.3192234992264</v>
+        <v>945.985453637656</v>
       </c>
       <c r="S25">
-        <v>0.03972327395692884</v>
+        <v>0.03963413090540831</v>
       </c>
       <c r="T25">
-        <v>0.03972327395692884</v>
+        <v>0.03589242798490495</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H26">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I26">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J26">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N26">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O26">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P26">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q26">
-        <v>127.3735098944747</v>
+        <v>132.901049164385</v>
       </c>
       <c r="R26">
-        <v>127.3735098944747</v>
+        <v>797.4062949863101</v>
       </c>
       <c r="S26">
-        <v>0.03365965250891442</v>
+        <v>0.03340908188255252</v>
       </c>
       <c r="T26">
-        <v>0.03365965250891442</v>
+        <v>0.03025506143614418</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H27">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I27">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J27">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N27">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P27">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q27">
-        <v>3.017301341959581</v>
+        <v>4.883591025622334</v>
       </c>
       <c r="R27">
-        <v>3.017301341959581</v>
+        <v>43.95231923060101</v>
       </c>
       <c r="S27">
-        <v>0.0007973503656229723</v>
+        <v>0.001227652403662424</v>
       </c>
       <c r="T27">
-        <v>0.0007973503656229723</v>
+        <v>0.001667631829525104</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H28">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I28">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J28">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N28">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O28">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P28">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q28">
-        <v>1.242450801912679</v>
+        <v>1.623241870288667</v>
       </c>
       <c r="R28">
-        <v>1.242450801912679</v>
+        <v>14.609176832598</v>
       </c>
       <c r="S28">
-        <v>0.0003283293542468124</v>
+        <v>0.0004080556240950631</v>
       </c>
       <c r="T28">
-        <v>0.0003283293542468124</v>
+        <v>0.0005542990384962226</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H29">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I29">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J29">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N29">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O29">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P29">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q29">
-        <v>1.558508951815684</v>
+        <v>1.851085306217</v>
       </c>
       <c r="R29">
-        <v>1.558508951815684</v>
+        <v>16.659767755953</v>
       </c>
       <c r="S29">
-        <v>0.0004118507042289173</v>
+        <v>0.0004653316204486845</v>
       </c>
       <c r="T29">
-        <v>0.0004118507042289173</v>
+        <v>0.0006321022296129545</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H30">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I30">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J30">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N30">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O30">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P30">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q30">
-        <v>82.15207373287895</v>
+        <v>87.86322336033001</v>
       </c>
       <c r="R30">
-        <v>82.15207373287895</v>
+        <v>790.7690102429701</v>
       </c>
       <c r="S30">
-        <v>0.021709461072607</v>
+        <v>0.02208733220818626</v>
       </c>
       <c r="T30">
-        <v>0.021709461072607</v>
+        <v>0.03000323064556536</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H31">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I31">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J31">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N31">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O31">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P31">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q31">
-        <v>44.82565749459307</v>
+        <v>47.588429706308</v>
       </c>
       <c r="R31">
-        <v>44.82565749459307</v>
+        <v>285.530578237848</v>
       </c>
       <c r="S31">
-        <v>0.01184560318704909</v>
+        <v>0.01196292846983934</v>
       </c>
       <c r="T31">
-        <v>0.01184560318704909</v>
+        <v>0.01083355529144923</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H32">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I32">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J32">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N32">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O32">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P32">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q32">
-        <v>205.2652217191316</v>
+        <v>209.095400042785</v>
       </c>
       <c r="R32">
-        <v>205.2652217191316</v>
+        <v>836.3816001711399</v>
       </c>
       <c r="S32">
-        <v>0.05424327272566549</v>
+        <v>0.05256305638832016</v>
       </c>
       <c r="T32">
-        <v>0.05424327272566549</v>
+        <v>0.03173385619895671</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H33">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I33">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J33">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N33">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P33">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q33">
-        <v>4.862447689977909</v>
+        <v>7.683433844715667</v>
       </c>
       <c r="R33">
-        <v>4.862447689977909</v>
+        <v>46.100603068294</v>
       </c>
       <c r="S33">
-        <v>0.001284947707910574</v>
+        <v>0.001931485658474929</v>
       </c>
       <c r="T33">
-        <v>0.001284947707910574</v>
+        <v>0.001749141669490429</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H34">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I34">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J34">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N34">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O34">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P34">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q34">
-        <v>2.002236882229324</v>
+        <v>2.553873053435334</v>
       </c>
       <c r="R34">
-        <v>2.002236882229324</v>
+        <v>15.323238320612</v>
       </c>
       <c r="S34">
-        <v>0.0005291099990273153</v>
+        <v>0.0006420006049337521</v>
       </c>
       <c r="T34">
-        <v>0.0005291099990273153</v>
+        <v>0.0005813918446665312</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H35">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I35">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J35">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N35">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O35">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P35">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q35">
-        <v>2.511571564689802</v>
+        <v>2.912342867496999</v>
       </c>
       <c r="R35">
-        <v>2.511571564689802</v>
+        <v>17.474057204982</v>
       </c>
       <c r="S35">
-        <v>0.0006637064974402216</v>
+        <v>0.0007321138692436244</v>
       </c>
       <c r="T35">
-        <v>0.0006637064974402216</v>
+        <v>0.0006629978689652865</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H36">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I36">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J36">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N36">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O36">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P36">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q36">
-        <v>132.3898795239004</v>
+        <v>138.23665014753</v>
       </c>
       <c r="R36">
-        <v>132.3898795239004</v>
+        <v>829.41990088518</v>
       </c>
       <c r="S36">
-        <v>0.03498527554248419</v>
+        <v>0.03475036196468365</v>
       </c>
       <c r="T36">
-        <v>0.03498527554248419</v>
+        <v>0.03146971652396167</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H37">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I37">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J37">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N37">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O37">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P37">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q37">
-        <v>72.23753614041402</v>
+        <v>74.871656841028</v>
       </c>
       <c r="R37">
-        <v>72.23753614041402</v>
+        <v>299.486627364112</v>
       </c>
       <c r="S37">
-        <v>0.01908945091173905</v>
+        <v>0.01882147153699525</v>
       </c>
       <c r="T37">
-        <v>0.01908945091173905</v>
+        <v>0.01136307346352262</v>
       </c>
     </row>
   </sheetData>
